--- a/python 1/sessao5/openpyxl/excel.xlsx
+++ b/python 1/sessao5/openpyxl/excel.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -503,10 +503,120 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1004</v>
+        <v>1205</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>69.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C7" t="n">
+        <v>97.84999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>74.34999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C9" t="n">
+        <v>99.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C12" t="n">
+        <v>78.95999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C13" t="n">
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38.09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C15" t="n">
+        <v>78.54000000000001</v>
       </c>
     </row>
   </sheetData>
